--- a/GOST_Templates/шаблоны/ВПизБУМ.xlsx
+++ b/GOST_Templates/шаблоны/ВПизБУМ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\workprjcts\build-VP_merge-Desktop_Qt_5_12_12_MinGW_32_bit-Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\GOST_Templates\шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C05A4DB-EF85-4628-AD3E-E2EA8201517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C137605-B54E-40B7-8BCF-61ED10761714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/GOST_Templates/шаблоны/ВПизБУМ.xlsx
+++ b/GOST_Templates/шаблоны/ВПизБУМ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab431_Oktava\Desktop\LezhnevV\testGOST\Libraries\GOST_Templates\шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LezhnevV\testGOST\Libraries\GOST_Templates\шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C137605-B54E-40B7-8BCF-61ED10761714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DED99-63CC-4F98-9455-B153B7531308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Column=Part Number</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Column=Designator</t>
+  </si>
+  <si>
+    <t>Column=Коммент</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,9 +386,10 @@
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -403,6 +407,9 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
